--- a/notebook/validate_cdna_display_via_y_ligation/attach_mrna_to_mwasabi/try_purefrex/attach_via_purefrex_cond.xlsx
+++ b/notebook/validate_cdna_display_via_y_ligation/attach_mrna_to_mwasabi/try_purefrex/attach_via_purefrex_cond.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t xml:space="preserve">PUREfrex</t>
   </si>
@@ -134,13 +134,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.8"/>
   </cols>
@@ -153,7 +153,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
@@ -162,6 +162,9 @@
         <v>2</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -184,26 +187,32 @@
       <c r="F2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>750</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">C3/2</f>
-        <v>375</v>
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">D3/2</f>
+        <v>375</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">E3/2</f>
         <v>187.5</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -212,20 +221,23 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>65</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">C4/2</f>
-        <v>32.5</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">D4/2</f>
+        <v>32.5</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">E4/2</f>
         <v>16.25</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/notebook/validate_cdna_display_via_y_ligation/attach_mrna_to_mwasabi/try_purefrex/attach_via_purefrex_cond.xlsx
+++ b/notebook/validate_cdna_display_via_y_ligation/attach_mrna_to_mwasabi/try_purefrex/attach_via_purefrex_cond.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t xml:space="preserve">PUREfrex</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f85</t>
   </si>
   <si>
     <t xml:space="preserve">+</t>
@@ -134,13 +137,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.8"/>
   </cols>
@@ -155,65 +158,117 @@
       <c r="C1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="0" t="s">
+      <c r="D1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">D3/2</f>
-        <v>375</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">E3/2</f>
-        <v>187.5</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>0</v>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -221,23 +276,88 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>65</v>
+        <v>750</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>65</v>
+        <v>750</v>
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">D4/2</f>
-        <v>32.5</v>
+        <v>375</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">E4/2</f>
+        <v>187.5</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">I4/2</f>
+        <v>375</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">J4/2</f>
+        <v>187.5</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">D5/2</f>
+        <v>32.5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">E5/2</f>
         <v>16.25</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">I5/2</f>
+        <v>32.5</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">J5/2</f>
+        <v>16.25</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
